--- a/pred_ohlcv/54/2019-10-31 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-31 POWR ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H224"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>52.9</v>
       </c>
       <c r="F2" t="n">
-        <v>11839950.7562</v>
+        <v>11830000</v>
       </c>
       <c r="G2" t="n">
-        <v>52.87666666666686</v>
+        <v>52.8750000000002</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>52.9</v>
       </c>
       <c r="F3" t="n">
-        <v>11900000</v>
+        <v>11839950.7562</v>
       </c>
       <c r="G3" t="n">
-        <v>52.87833333333353</v>
+        <v>52.87666666666686</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>52.9</v>
       </c>
       <c r="F4" t="n">
-        <v>690049.2438000001</v>
+        <v>11900000</v>
       </c>
       <c r="G4" t="n">
-        <v>52.88166666666687</v>
+        <v>52.87833333333353</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>52.9</v>
       </c>
       <c r="F5" t="n">
-        <v>1800.1723</v>
+        <v>690049.2438000001</v>
       </c>
       <c r="G5" t="n">
-        <v>52.8850000000002</v>
+        <v>52.88166666666687</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>52.9</v>
       </c>
       <c r="F6" t="n">
-        <v>6434.1541</v>
+        <v>1800.1723</v>
       </c>
       <c r="G6" t="n">
-        <v>52.88666666666687</v>
+        <v>52.8850000000002</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="C7" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="D7" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="E7" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F7" t="n">
-        <v>356.6157</v>
+        <v>6434.1541</v>
       </c>
       <c r="G7" t="n">
-        <v>52.89166666666686</v>
+        <v>52.88666666666687</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>53.1</v>
       </c>
       <c r="F8" t="n">
-        <v>99.7834</v>
+        <v>356.6157</v>
       </c>
       <c r="G8" t="n">
-        <v>52.89666666666686</v>
+        <v>52.89166666666686</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="C9" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>99.7834</v>
       </c>
       <c r="G9" t="n">
-        <v>52.90000000000019</v>
+        <v>52.89666666666686</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>53</v>
       </c>
       <c r="F10" t="n">
-        <v>1671.4283</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
-        <v>52.90333333333352</v>
+        <v>52.90000000000019</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="C11" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="D11" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="E11" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="F11" t="n">
-        <v>8913.102800000001</v>
+        <v>1671.4283</v>
       </c>
       <c r="G11" t="n">
-        <v>52.90500000000019</v>
+        <v>52.90333333333352</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>52.9</v>
       </c>
       <c r="F12" t="n">
-        <v>948.1935999999999</v>
+        <v>8913.102800000001</v>
       </c>
       <c r="G12" t="n">
-        <v>52.90666666666685</v>
+        <v>52.90500000000019</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="C13" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="D13" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="E13" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F13" t="n">
-        <v>3147.1621</v>
+        <v>948.1935999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>52.91166666666685</v>
+        <v>52.90666666666685</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>53.1</v>
       </c>
       <c r="F14" t="n">
-        <v>8663.5987</v>
+        <v>3147.1621</v>
       </c>
       <c r="G14" t="n">
-        <v>52.91500000000018</v>
+        <v>52.91166666666685</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C15" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D15" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E15" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F15" t="n">
-        <v>800.2966</v>
+        <v>8663.5987</v>
       </c>
       <c r="G15" t="n">
-        <v>52.92000000000017</v>
+        <v>52.91500000000018</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="C16" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="D16" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="E16" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="F16" t="n">
-        <v>1790.083</v>
+        <v>800.2966</v>
       </c>
       <c r="G16" t="n">
-        <v>52.92833333333351</v>
+        <v>52.92000000000017</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="C17" t="n">
-        <v>53.2</v>
+        <v>53.4</v>
       </c>
       <c r="D17" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="E17" t="n">
-        <v>53.2</v>
+        <v>53.4</v>
       </c>
       <c r="F17" t="n">
-        <v>5471.2615</v>
+        <v>1790.083</v>
       </c>
       <c r="G17" t="n">
-        <v>52.93500000000017</v>
+        <v>52.92833333333351</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="C18" t="n">
         <v>53.2</v>
       </c>
-      <c r="C18" t="n">
-        <v>53.1</v>
-      </c>
       <c r="D18" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="E18" t="n">
         <v>53.2</v>
       </c>
-      <c r="E18" t="n">
-        <v>53.1</v>
-      </c>
       <c r="F18" t="n">
-        <v>4793.3311</v>
+        <v>5471.2615</v>
       </c>
       <c r="G18" t="n">
-        <v>52.94000000000016</v>
+        <v>52.93500000000017</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="C19" t="n">
         <v>53.1</v>
       </c>
-      <c r="C19" t="n">
-        <v>52.8</v>
-      </c>
       <c r="D19" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E19" t="n">
         <v>53.1</v>
       </c>
-      <c r="E19" t="n">
-        <v>52.8</v>
-      </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>4793.3311</v>
       </c>
       <c r="G19" t="n">
         <v>52.94000000000016</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="C20" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="D20" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="E20" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="F20" t="n">
-        <v>950.019</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
         <v>52.94000000000016</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="C21" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="D21" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="E21" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="F21" t="n">
-        <v>6789.9967</v>
+        <v>950.019</v>
       </c>
       <c r="G21" t="n">
-        <v>52.9383333333335</v>
+        <v>52.94000000000016</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="C22" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="D22" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="E22" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="F22" t="n">
-        <v>6589.675</v>
+        <v>6789.9967</v>
       </c>
       <c r="G22" t="n">
-        <v>52.95666666666683</v>
+        <v>52.9383333333335</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C23" t="n">
-        <v>55.9</v>
+        <v>54</v>
       </c>
       <c r="D23" t="n">
-        <v>55.9</v>
+        <v>54</v>
       </c>
       <c r="E23" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="F23" t="n">
-        <v>358709.7223</v>
+        <v>6589.675</v>
       </c>
       <c r="G23" t="n">
-        <v>53.00666666666682</v>
+        <v>52.95666666666683</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>54</v>
+      </c>
+      <c r="C24" t="n">
         <v>55.9</v>
-      </c>
-      <c r="C24" t="n">
-        <v>55</v>
       </c>
       <c r="D24" t="n">
         <v>55.9</v>
       </c>
       <c r="E24" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" t="n">
-        <v>51853.3354</v>
+        <v>358709.7223</v>
       </c>
       <c r="G24" t="n">
-        <v>53.04166666666683</v>
+        <v>53.00666666666682</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>54.4</v>
+        <v>55.9</v>
       </c>
       <c r="C25" t="n">
         <v>55</v>
       </c>
       <c r="D25" t="n">
-        <v>55.1</v>
+        <v>55.9</v>
       </c>
       <c r="E25" t="n">
-        <v>54.2</v>
+        <v>55</v>
       </c>
       <c r="F25" t="n">
-        <v>151092.6133</v>
+        <v>51853.3354</v>
       </c>
       <c r="G25" t="n">
-        <v>53.07666666666682</v>
+        <v>53.04166666666683</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,25 +1109,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>53.9</v>
+        <v>54.4</v>
       </c>
       <c r="C26" t="n">
-        <v>53.8</v>
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>53.9</v>
+        <v>55.1</v>
       </c>
       <c r="E26" t="n">
-        <v>53.8</v>
+        <v>54.2</v>
       </c>
       <c r="F26" t="n">
-        <v>14307.0996</v>
+        <v>151092.6133</v>
       </c>
       <c r="G26" t="n">
-        <v>53.09166666666682</v>
+        <v>53.07666666666682</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>54.3</v>
+        <v>53.9</v>
       </c>
       <c r="C27" t="n">
-        <v>54.4</v>
+        <v>53.8</v>
       </c>
       <c r="D27" t="n">
-        <v>54.5</v>
+        <v>53.9</v>
       </c>
       <c r="E27" t="n">
-        <v>54.3</v>
+        <v>53.8</v>
       </c>
       <c r="F27" t="n">
-        <v>13468.5163</v>
+        <v>14307.0996</v>
       </c>
       <c r="G27" t="n">
-        <v>53.11666666666682</v>
+        <v>53.09166666666682</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="C28" t="n">
         <v>54.4</v>
       </c>
-      <c r="C28" t="n">
-        <v>54.3</v>
-      </c>
       <c r="D28" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="E28" t="n">
         <v>54.3</v>
       </c>
       <c r="F28" t="n">
-        <v>12542.4231</v>
+        <v>13468.5163</v>
       </c>
       <c r="G28" t="n">
-        <v>53.14000000000016</v>
+        <v>53.11666666666682</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="C29" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="D29" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="E29" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F29" t="n">
-        <v>7667.5887</v>
+        <v>12542.4231</v>
       </c>
       <c r="G29" t="n">
-        <v>53.15833333333349</v>
+        <v>53.14000000000016</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="C30" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="D30" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="E30" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="F30" t="n">
-        <v>157.2365</v>
+        <v>7667.5887</v>
       </c>
       <c r="G30" t="n">
-        <v>53.17833333333349</v>
+        <v>53.15833333333349</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="C31" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="D31" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="E31" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="F31" t="n">
-        <v>1080</v>
+        <v>157.2365</v>
       </c>
       <c r="G31" t="n">
-        <v>53.20333333333349</v>
+        <v>53.17833333333349</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>54.4</v>
       </c>
       <c r="F32" t="n">
-        <v>6717.8662</v>
+        <v>1080</v>
       </c>
       <c r="G32" t="n">
-        <v>53.22833333333349</v>
+        <v>53.20333333333349</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>54.4</v>
       </c>
       <c r="F33" t="n">
-        <v>10602.9113</v>
+        <v>6717.8662</v>
       </c>
       <c r="G33" t="n">
-        <v>53.25000000000016</v>
+        <v>53.22833333333349</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="C34" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="D34" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="E34" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="F34" t="n">
-        <v>1101.0613</v>
+        <v>10602.9113</v>
       </c>
       <c r="G34" t="n">
-        <v>53.2733333333335</v>
+        <v>53.25000000000016</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="C35" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="D35" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="E35" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F35" t="n">
-        <v>704.0218</v>
+        <v>1101.0613</v>
       </c>
       <c r="G35" t="n">
-        <v>53.29166666666683</v>
+        <v>53.2733333333335</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>54.4</v>
+        <v>54</v>
       </c>
       <c r="C36" t="n">
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="D36" t="n">
-        <v>55.2</v>
+        <v>54</v>
       </c>
       <c r="E36" t="n">
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="F36" t="n">
-        <v>21854.634</v>
+        <v>704.0218</v>
       </c>
       <c r="G36" t="n">
-        <v>53.30166666666683</v>
+        <v>53.29166666666683</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>53.8</v>
+        <v>54.4</v>
       </c>
       <c r="C37" t="n">
-        <v>55.9</v>
+        <v>53.5</v>
       </c>
       <c r="D37" t="n">
-        <v>55.9</v>
+        <v>55.2</v>
       </c>
       <c r="E37" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="F37" t="n">
-        <v>59869.0021</v>
+        <v>21854.634</v>
       </c>
       <c r="G37" t="n">
-        <v>53.35166666666682</v>
+        <v>53.30166666666683</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="C38" t="n">
-        <v>53.9</v>
+        <v>55.9</v>
       </c>
       <c r="D38" t="n">
-        <v>53.9</v>
+        <v>55.9</v>
       </c>
       <c r="E38" t="n">
-        <v>53.9</v>
+        <v>53.7</v>
       </c>
       <c r="F38" t="n">
-        <v>617.999</v>
+        <v>59869.0021</v>
       </c>
       <c r="G38" t="n">
-        <v>53.36833333333349</v>
+        <v>53.35166666666682</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="C39" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="D39" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="E39" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="F39" t="n">
-        <v>512.8742</v>
+        <v>617.999</v>
       </c>
       <c r="G39" t="n">
-        <v>53.38666666666682</v>
+        <v>53.36833333333349</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="C40" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="D40" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E40" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="F40" t="n">
-        <v>7834.466</v>
+        <v>512.8742</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40666666666682</v>
+        <v>53.38666666666682</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>54.3</v>
+        <v>54.1</v>
       </c>
       <c r="C41" t="n">
-        <v>54.3</v>
+        <v>54.1</v>
       </c>
       <c r="D41" t="n">
-        <v>54.3</v>
+        <v>54.1</v>
       </c>
       <c r="E41" t="n">
-        <v>54.3</v>
+        <v>54.1</v>
       </c>
       <c r="F41" t="n">
-        <v>2452.3895</v>
+        <v>7834.466</v>
       </c>
       <c r="G41" t="n">
-        <v>53.43000000000016</v>
+        <v>53.40666666666682</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="C42" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="D42" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="E42" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F42" t="n">
-        <v>809</v>
+        <v>2452.3895</v>
       </c>
       <c r="G42" t="n">
-        <v>53.44833333333349</v>
+        <v>53.43000000000016</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>54</v>
       </c>
       <c r="F43" t="n">
-        <v>6227.4536</v>
+        <v>809</v>
       </c>
       <c r="G43" t="n">
-        <v>53.46666666666682</v>
+        <v>53.44833333333349</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="C44" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="D44" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="E44" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="F44" t="n">
-        <v>199.1409</v>
+        <v>6227.4536</v>
       </c>
       <c r="G44" t="n">
-        <v>53.48333333333348</v>
+        <v>53.46666666666682</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="C45" t="n">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="D45" t="n">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="E45" t="n">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="F45" t="n">
-        <v>1100</v>
+        <v>199.1409</v>
       </c>
       <c r="G45" t="n">
-        <v>53.49333333333348</v>
+        <v>53.48333333333348</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>53.9</v>
+        <v>53.5</v>
       </c>
       <c r="C46" t="n">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="D46" t="n">
-        <v>53.9</v>
+        <v>53.5</v>
       </c>
       <c r="E46" t="n">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="F46" t="n">
-        <v>3860</v>
+        <v>1100</v>
       </c>
       <c r="G46" t="n">
-        <v>53.50166666666681</v>
+        <v>53.49333333333348</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>53.6</v>
+        <v>53.9</v>
       </c>
       <c r="C47" t="n">
-        <v>53.6</v>
+        <v>53.4</v>
       </c>
       <c r="D47" t="n">
-        <v>53.6</v>
+        <v>53.9</v>
       </c>
       <c r="E47" t="n">
-        <v>53.6</v>
+        <v>53.4</v>
       </c>
       <c r="F47" t="n">
-        <v>93290.5223</v>
+        <v>3860</v>
       </c>
       <c r="G47" t="n">
-        <v>53.51333333333348</v>
+        <v>53.50166666666681</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="C48" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="D48" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="E48" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="F48" t="n">
-        <v>816.6179</v>
+        <v>93290.5223</v>
       </c>
       <c r="G48" t="n">
-        <v>53.52166666666681</v>
+        <v>53.51333333333348</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1633,21 +1779,24 @@
         <v>53.4</v>
       </c>
       <c r="C49" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="D49" t="n">
         <v>53.4</v>
       </c>
       <c r="E49" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="F49" t="n">
-        <v>21197.363</v>
+        <v>816.6179</v>
       </c>
       <c r="G49" t="n">
-        <v>53.52833333333349</v>
+        <v>53.52166666666681</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="C50" t="n">
         <v>53.3</v>
       </c>
       <c r="D50" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="E50" t="n">
         <v>53.3</v>
       </c>
       <c r="F50" t="n">
-        <v>8185.262</v>
+        <v>21197.363</v>
       </c>
       <c r="G50" t="n">
-        <v>53.53500000000015</v>
+        <v>53.52833333333349</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>53.3</v>
       </c>
       <c r="F51" t="n">
-        <v>626.3861000000001</v>
+        <v>8185.262</v>
       </c>
       <c r="G51" t="n">
-        <v>53.54166666666682</v>
+        <v>53.53500000000015</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="C52" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="D52" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="E52" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="F52" t="n">
-        <v>88526.05349999999</v>
+        <v>626.3861000000001</v>
       </c>
       <c r="G52" t="n">
         <v>53.54166666666682</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="C53" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="D53" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="E53" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="F53" t="n">
-        <v>25</v>
+        <v>88526.05349999999</v>
       </c>
       <c r="G53" t="n">
-        <v>53.55000000000015</v>
+        <v>53.54166666666682</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="C54" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="D54" t="n">
-        <v>53.1</v>
+        <v>53.4</v>
       </c>
       <c r="E54" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="F54" t="n">
-        <v>4601.6797</v>
+        <v>25</v>
       </c>
       <c r="G54" t="n">
         <v>53.55000000000015</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="C55" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="D55" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E55" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F55" t="n">
-        <v>30</v>
+        <v>4601.6797</v>
       </c>
       <c r="G55" t="n">
-        <v>53.55500000000015</v>
+        <v>53.55000000000015</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>53.3</v>
+        <v>53</v>
       </c>
       <c r="C56" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="D56" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="E56" t="n">
-        <v>53.3</v>
+        <v>53</v>
       </c>
       <c r="F56" t="n">
-        <v>894.4652</v>
+        <v>30</v>
       </c>
       <c r="G56" t="n">
-        <v>53.56166666666682</v>
+        <v>53.55500000000015</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="C57" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="D57" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="E57" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="F57" t="n">
-        <v>3035</v>
+        <v>894.4652</v>
       </c>
       <c r="G57" t="n">
-        <v>53.56500000000015</v>
+        <v>53.56166666666682</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="C58" t="n">
-        <v>53.5</v>
+        <v>53.1</v>
       </c>
       <c r="D58" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="E58" t="n">
-        <v>53.3</v>
+        <v>53.1</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>3035</v>
       </c>
       <c r="G58" t="n">
-        <v>53.57500000000014</v>
+        <v>53.56500000000015</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,7 +2066,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="C59" t="n">
         <v>53.5</v>
@@ -1899,15 +2075,18 @@
         <v>53.5</v>
       </c>
       <c r="E59" t="n">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>53.58500000000014</v>
+        <v>53.57500000000014</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>53.5</v>
       </c>
       <c r="F60" t="n">
-        <v>122.3121</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>53.59500000000014</v>
+        <v>53.58500000000014</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>53.5</v>
       </c>
       <c r="F61" t="n">
-        <v>177.3326</v>
+        <v>122.3121</v>
       </c>
       <c r="G61" t="n">
-        <v>53.60500000000014</v>
+        <v>53.59500000000014</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>53.5</v>
       </c>
       <c r="F62" t="n">
-        <v>19.7869</v>
+        <v>177.3326</v>
       </c>
       <c r="G62" t="n">
-        <v>53.61500000000014</v>
+        <v>53.60500000000014</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>53.5</v>
       </c>
       <c r="F63" t="n">
-        <v>386.9418</v>
+        <v>19.7869</v>
       </c>
       <c r="G63" t="n">
-        <v>53.62500000000014</v>
+        <v>53.61500000000014</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="C64" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="D64" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="E64" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>386.9418</v>
       </c>
       <c r="G64" t="n">
-        <v>53.62833333333347</v>
+        <v>53.62500000000014</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>53.1</v>
       </c>
       <c r="F65" t="n">
-        <v>60.7985</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>53.6316666666668</v>
+        <v>53.62833333333347</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>53.1</v>
       </c>
       <c r="F66" t="n">
-        <v>1164.1468</v>
+        <v>60.7985</v>
       </c>
       <c r="G66" t="n">
-        <v>53.63500000000013</v>
+        <v>53.6316666666668</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C67" t="n">
-        <v>53.4</v>
+        <v>53.1</v>
       </c>
       <c r="D67" t="n">
-        <v>53.4</v>
+        <v>53.1</v>
       </c>
       <c r="E67" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F67" t="n">
-        <v>30</v>
+        <v>1164.1468</v>
       </c>
       <c r="G67" t="n">
-        <v>53.64000000000013</v>
+        <v>53.63500000000013</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="C68" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="E68" t="n">
         <v>53.2</v>
       </c>
-      <c r="D68" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="E68" t="n">
-        <v>53.1</v>
-      </c>
       <c r="F68" t="n">
-        <v>2041.3363</v>
+        <v>30</v>
       </c>
       <c r="G68" t="n">
-        <v>53.64166666666679</v>
+        <v>53.64000000000013</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,7 +2356,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C69" t="n">
         <v>53.2</v>
@@ -2159,15 +2365,18 @@
         <v>53.2</v>
       </c>
       <c r="E69" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F69" t="n">
-        <v>883.11</v>
+        <v>2041.3363</v>
       </c>
       <c r="G69" t="n">
-        <v>53.64500000000012</v>
+        <v>53.64166666666679</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="C70" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="D70" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="E70" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>883.11</v>
       </c>
       <c r="G70" t="n">
-        <v>53.65000000000013</v>
+        <v>53.64500000000012</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="C71" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="D71" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="E71" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="F71" t="n">
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>53.65833333333346</v>
+        <v>53.65000000000013</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,21 +2446,24 @@
         <v>53.4</v>
       </c>
       <c r="C72" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="D72" t="n">
         <v>53.4</v>
       </c>
       <c r="E72" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="F72" t="n">
-        <v>6287.3782</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>53.66500000000013</v>
+        <v>53.65833333333346</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>53.4</v>
       </c>
       <c r="C73" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="D73" t="n">
         <v>53.4</v>
       </c>
-      <c r="D73" t="n">
-        <v>53.5</v>
-      </c>
       <c r="E73" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="F73" t="n">
-        <v>366.8321</v>
+        <v>6287.3782</v>
       </c>
       <c r="G73" t="n">
-        <v>53.67000000000014</v>
+        <v>53.66500000000013</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="C74" t="n">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="D74" t="n">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="E74" t="n">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="F74" t="n">
-        <v>27600</v>
+        <v>366.8321</v>
       </c>
       <c r="G74" t="n">
-        <v>53.66833333333347</v>
+        <v>53.67000000000014</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="C75" t="n">
-        <v>53.5</v>
+        <v>53</v>
       </c>
       <c r="D75" t="n">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="E75" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="F75" t="n">
-        <v>1039.0551</v>
+        <v>27600</v>
       </c>
       <c r="G75" t="n">
-        <v>53.67333333333347</v>
+        <v>53.66833333333347</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2559,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>53.5</v>
+        <v>53.2</v>
       </c>
       <c r="C76" t="n">
         <v>53.5</v>
@@ -2341,15 +2568,18 @@
         <v>53.5</v>
       </c>
       <c r="E76" t="n">
-        <v>53.5</v>
+        <v>53.2</v>
       </c>
       <c r="F76" t="n">
-        <v>1266.2289</v>
+        <v>1039.0551</v>
       </c>
       <c r="G76" t="n">
-        <v>53.67500000000014</v>
+        <v>53.67333333333347</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
       <c r="C77" t="n">
-        <v>54</v>
+        <v>53.5</v>
       </c>
       <c r="D77" t="n">
-        <v>54</v>
+        <v>53.5</v>
       </c>
       <c r="E77" t="n">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
       <c r="F77" t="n">
-        <v>79837.4519</v>
+        <v>1266.2289</v>
       </c>
       <c r="G77" t="n">
-        <v>53.68833333333347</v>
+        <v>53.67500000000014</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>54.1</v>
+        <v>53.6</v>
       </c>
       <c r="C78" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="D78" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E78" t="n">
-        <v>54.1</v>
+        <v>53.6</v>
       </c>
       <c r="F78" t="n">
-        <v>13107.3789</v>
+        <v>79837.4519</v>
       </c>
       <c r="G78" t="n">
-        <v>53.70500000000014</v>
+        <v>53.68833333333347</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>54.1</v>
       </c>
       <c r="F79" t="n">
-        <v>4597</v>
+        <v>13107.3789</v>
       </c>
       <c r="G79" t="n">
-        <v>53.7266666666668</v>
+        <v>53.70500000000014</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="C80" t="n">
         <v>54.1</v>
       </c>
       <c r="D80" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="E80" t="n">
         <v>54.1</v>
       </c>
       <c r="F80" t="n">
-        <v>985.2085</v>
+        <v>4597</v>
       </c>
       <c r="G80" t="n">
-        <v>53.7466666666668</v>
+        <v>53.7266666666668</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="C81" t="n">
         <v>54.1</v>
       </c>
       <c r="D81" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="E81" t="n">
         <v>54.1</v>
       </c>
       <c r="F81" t="n">
-        <v>1216.5857</v>
+        <v>985.2085</v>
       </c>
       <c r="G81" t="n">
-        <v>53.76833333333346</v>
+        <v>53.7466666666668</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2497,15 +2742,18 @@
         <v>54.1</v>
       </c>
       <c r="E82" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F82" t="n">
-        <v>32258.5733</v>
+        <v>1216.5857</v>
       </c>
       <c r="G82" t="n">
-        <v>53.77000000000012</v>
+        <v>53.76833333333346</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="C83" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="D83" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="E83" t="n">
         <v>54</v>
       </c>
       <c r="F83" t="n">
-        <v>155.614</v>
+        <v>32258.5733</v>
       </c>
       <c r="G83" t="n">
-        <v>53.73833333333346</v>
+        <v>53.77000000000012</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>54</v>
       </c>
       <c r="F84" t="n">
-        <v>1364.9259</v>
+        <v>155.614</v>
       </c>
       <c r="G84" t="n">
-        <v>53.72166666666679</v>
+        <v>53.73833333333346</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>54.4</v>
+        <v>54</v>
       </c>
       <c r="C85" t="n">
-        <v>54.4</v>
+        <v>54</v>
       </c>
       <c r="D85" t="n">
-        <v>54.4</v>
+        <v>54</v>
       </c>
       <c r="E85" t="n">
-        <v>54.4</v>
+        <v>54</v>
       </c>
       <c r="F85" t="n">
-        <v>25.5241</v>
+        <v>1364.9259</v>
       </c>
       <c r="G85" t="n">
-        <v>53.71166666666679</v>
+        <v>53.72166666666679</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="C86" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="D86" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="E86" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="F86" t="n">
-        <v>581.8891</v>
+        <v>25.5241</v>
       </c>
       <c r="G86" t="n">
-        <v>53.71500000000012</v>
+        <v>53.71166666666679</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>54</v>
       </c>
       <c r="F87" t="n">
-        <v>11363.4874</v>
+        <v>581.8891</v>
       </c>
       <c r="G87" t="n">
-        <v>53.70833333333346</v>
+        <v>53.71500000000012</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>54</v>
       </c>
       <c r="F88" t="n">
-        <v>22951.3344</v>
+        <v>11363.4874</v>
       </c>
       <c r="G88" t="n">
-        <v>53.70333333333345</v>
+        <v>53.70833333333346</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="C89" t="n">
         <v>54</v>
       </c>
       <c r="D89" t="n">
-        <v>54.5</v>
+        <v>54</v>
       </c>
       <c r="E89" t="n">
         <v>54</v>
       </c>
       <c r="F89" t="n">
-        <v>19837.9335</v>
+        <v>22951.3344</v>
       </c>
       <c r="G89" t="n">
         <v>53.70333333333345</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="C90" t="n">
         <v>54</v>
       </c>
       <c r="D90" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="E90" t="n">
         <v>54</v>
       </c>
       <c r="F90" t="n">
-        <v>509.3832</v>
+        <v>19837.9335</v>
       </c>
       <c r="G90" t="n">
-        <v>53.70166666666679</v>
+        <v>53.70333333333345</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>54</v>
       </c>
       <c r="F91" t="n">
-        <v>949.7446</v>
+        <v>509.3832</v>
       </c>
       <c r="G91" t="n">
-        <v>53.69500000000012</v>
+        <v>53.70166666666679</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="C92" t="n">
         <v>54</v>
       </c>
       <c r="D92" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E92" t="n">
         <v>54</v>
       </c>
       <c r="F92" t="n">
-        <v>4190.2432</v>
+        <v>949.7446</v>
       </c>
       <c r="G92" t="n">
-        <v>53.68833333333345</v>
+        <v>53.69500000000012</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="C93" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="D93" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="E93" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="F93" t="n">
-        <v>16441.3651</v>
+        <v>4190.2432</v>
       </c>
       <c r="G93" t="n">
-        <v>53.68000000000011</v>
+        <v>53.68833333333345</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>53.9</v>
       </c>
       <c r="F94" t="n">
-        <v>293.5102</v>
+        <v>16441.3651</v>
       </c>
       <c r="G94" t="n">
-        <v>53.67333333333345</v>
+        <v>53.68000000000011</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="C95" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="D95" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="E95" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="F95" t="n">
-        <v>5419.1616</v>
+        <v>293.5102</v>
       </c>
       <c r="G95" t="n">
         <v>53.67333333333345</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>54</v>
       </c>
       <c r="F96" t="n">
-        <v>985.4357</v>
+        <v>5419.1616</v>
       </c>
       <c r="G96" t="n">
-        <v>53.68166666666678</v>
+        <v>53.67333333333345</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>54</v>
       </c>
       <c r="F97" t="n">
-        <v>2141.388</v>
+        <v>985.4357</v>
       </c>
       <c r="G97" t="n">
-        <v>53.65000000000011</v>
+        <v>53.68166666666678</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="C98" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="D98" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E98" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="F98" t="n">
-        <v>14600.0146</v>
+        <v>2141.388</v>
       </c>
       <c r="G98" t="n">
-        <v>53.65333333333344</v>
+        <v>53.65000000000011</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="C99" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="D99" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="E99" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="F99" t="n">
-        <v>31607.8466</v>
+        <v>14600.0146</v>
       </c>
       <c r="G99" t="n">
-        <v>53.65166666666678</v>
+        <v>53.65333333333344</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>54</v>
+      </c>
+      <c r="C100" t="n">
         <v>53.9</v>
       </c>
-      <c r="C100" t="n">
-        <v>54.1</v>
-      </c>
       <c r="D100" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E100" t="n">
         <v>53.9</v>
       </c>
       <c r="F100" t="n">
-        <v>50965.04063807</v>
+        <v>31607.8466</v>
       </c>
       <c r="G100" t="n">
         <v>53.65166666666678</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,7 +3284,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="C101" t="n">
         <v>54.1</v>
@@ -2991,15 +3293,18 @@
         <v>54.1</v>
       </c>
       <c r="E101" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="F101" t="n">
-        <v>37636.58136193</v>
+        <v>50965.04063807</v>
       </c>
       <c r="G101" t="n">
-        <v>53.64833333333344</v>
+        <v>53.65166666666678</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="C102" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="D102" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="E102" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="F102" t="n">
-        <v>36233.5793</v>
+        <v>37636.58136193</v>
       </c>
       <c r="G102" t="n">
-        <v>53.65166666666677</v>
+        <v>53.64833333333344</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="C103" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="D103" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="E103" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="F103" t="n">
-        <v>14539.6903</v>
+        <v>36233.5793</v>
       </c>
       <c r="G103" t="n">
-        <v>53.65333333333344</v>
+        <v>53.65166666666677</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>54.1</v>
       </c>
       <c r="F104" t="n">
-        <v>4720.1212</v>
+        <v>14539.6903</v>
       </c>
       <c r="G104" t="n">
-        <v>53.65666666666677</v>
+        <v>53.65333333333344</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="C105" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="D105" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="E105" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="F105" t="n">
-        <v>355.0319</v>
+        <v>4720.1212</v>
       </c>
       <c r="G105" t="n">
-        <v>53.66333333333343</v>
+        <v>53.65666666666677</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>53.9</v>
       </c>
       <c r="C106" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="D106" t="n">
         <v>53.9</v>
       </c>
       <c r="E106" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="F106" t="n">
-        <v>7369.0591</v>
+        <v>355.0319</v>
       </c>
       <c r="G106" t="n">
-        <v>53.6700000000001</v>
+        <v>53.66333333333343</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="C107" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="D107" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="E107" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="F107" t="n">
-        <v>473.3759</v>
+        <v>7369.0591</v>
       </c>
       <c r="G107" t="n">
-        <v>53.67666666666677</v>
+        <v>53.6700000000001</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3167,21 +3490,24 @@
         <v>54</v>
       </c>
       <c r="C108" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="D108" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E108" t="n">
         <v>54</v>
       </c>
       <c r="F108" t="n">
-        <v>22409.8089</v>
+        <v>473.3759</v>
       </c>
       <c r="G108" t="n">
-        <v>53.68833333333343</v>
+        <v>53.67666666666677</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="C109" t="n">
-        <v>53.8</v>
+        <v>54.1</v>
       </c>
       <c r="D109" t="n">
-        <v>53.8</v>
+        <v>54.1</v>
       </c>
       <c r="E109" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="F109" t="n">
-        <v>62674.9887</v>
+        <v>22409.8089</v>
       </c>
       <c r="G109" t="n">
-        <v>53.69666666666676</v>
+        <v>53.68833333333343</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>53.6</v>
+        <v>53.8</v>
       </c>
       <c r="C110" t="n">
-        <v>53.7</v>
+        <v>53.8</v>
       </c>
       <c r="D110" t="n">
-        <v>53.7</v>
+        <v>53.8</v>
       </c>
       <c r="E110" t="n">
-        <v>53.6</v>
+        <v>53.8</v>
       </c>
       <c r="F110" t="n">
-        <v>15780.4857</v>
+        <v>62674.9887</v>
       </c>
       <c r="G110" t="n">
-        <v>53.70333333333343</v>
+        <v>53.69666666666676</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,7 +3574,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>53.7</v>
+        <v>53.6</v>
       </c>
       <c r="C111" t="n">
         <v>53.7</v>
@@ -3251,15 +3583,18 @@
         <v>53.7</v>
       </c>
       <c r="E111" t="n">
-        <v>53.7</v>
+        <v>53.6</v>
       </c>
       <c r="F111" t="n">
-        <v>6851.6009</v>
+        <v>15780.4857</v>
       </c>
       <c r="G111" t="n">
-        <v>53.71000000000009</v>
+        <v>53.70333333333343</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>53.7</v>
       </c>
       <c r="F112" t="n">
-        <v>988</v>
+        <v>6851.6009</v>
       </c>
       <c r="G112" t="n">
-        <v>53.72333333333342</v>
+        <v>53.71000000000009</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>53.7</v>
       </c>
       <c r="F113" t="n">
-        <v>2621.9865</v>
+        <v>988</v>
       </c>
       <c r="G113" t="n">
-        <v>53.72833333333342</v>
+        <v>53.72333333333342</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="C114" t="n">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="D114" t="n">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="E114" t="n">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="F114" t="n">
-        <v>7707.869</v>
+        <v>2621.9865</v>
       </c>
       <c r="G114" t="n">
-        <v>53.74000000000008</v>
+        <v>53.72833333333342</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="C115" t="n">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="D115" t="n">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="E115" t="n">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="F115" t="n">
-        <v>7392.6482</v>
+        <v>7707.869</v>
       </c>
       <c r="G115" t="n">
-        <v>53.75000000000009</v>
+        <v>53.74000000000008</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>53.8</v>
       </c>
       <c r="F116" t="n">
-        <v>762.3363000000001</v>
+        <v>7392.6482</v>
       </c>
       <c r="G116" t="n">
-        <v>53.75833333333342</v>
+        <v>53.75000000000009</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>54.1</v>
+        <v>53.8</v>
       </c>
       <c r="C117" t="n">
-        <v>54.1</v>
+        <v>53.8</v>
       </c>
       <c r="D117" t="n">
-        <v>54.1</v>
+        <v>53.8</v>
       </c>
       <c r="E117" t="n">
-        <v>54.1</v>
+        <v>53.8</v>
       </c>
       <c r="F117" t="n">
-        <v>5123.0981</v>
+        <v>762.3363000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>53.77500000000008</v>
+        <v>53.75833333333342</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="C118" t="n">
-        <v>54.6</v>
+        <v>54.1</v>
       </c>
       <c r="D118" t="n">
-        <v>54.6</v>
+        <v>54.1</v>
       </c>
       <c r="E118" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="F118" t="n">
-        <v>53062.0819</v>
+        <v>5123.0981</v>
       </c>
       <c r="G118" t="n">
-        <v>53.79333333333341</v>
+        <v>53.77500000000008</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C119" t="n">
         <v>54.6</v>
       </c>
-      <c r="C119" t="n">
-        <v>54.7</v>
-      </c>
       <c r="D119" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="E119" t="n">
-        <v>54.6</v>
+        <v>54.4</v>
       </c>
       <c r="F119" t="n">
-        <v>30877.163</v>
+        <v>53062.0819</v>
       </c>
       <c r="G119" t="n">
-        <v>53.81333333333341</v>
+        <v>53.79333333333341</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="C120" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="D120" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="E120" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="F120" t="n">
-        <v>4555.8746</v>
+        <v>30877.163</v>
       </c>
       <c r="G120" t="n">
-        <v>53.83500000000008</v>
+        <v>53.81333333333341</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>54.7</v>
+        <v>54.8</v>
       </c>
       <c r="C121" t="n">
-        <v>54.7</v>
+        <v>54.8</v>
       </c>
       <c r="D121" t="n">
-        <v>54.7</v>
+        <v>54.8</v>
       </c>
       <c r="E121" t="n">
-        <v>54.7</v>
+        <v>54.8</v>
       </c>
       <c r="F121" t="n">
-        <v>10493.0276</v>
+        <v>4555.8746</v>
       </c>
       <c r="G121" t="n">
-        <v>53.85500000000008</v>
+        <v>53.83500000000008</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="C122" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="D122" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="E122" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="F122" t="n">
-        <v>100317.1562</v>
+        <v>10493.0276</v>
       </c>
       <c r="G122" t="n">
-        <v>53.87833333333342</v>
+        <v>53.85500000000008</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="C123" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="D123" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="E123" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="F123" t="n">
-        <v>15099.75</v>
+        <v>100317.1562</v>
       </c>
       <c r="G123" t="n">
-        <v>53.90333333333341</v>
+        <v>53.87833333333342</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>54.9</v>
+        <v>54.4</v>
       </c>
       <c r="C124" t="n">
-        <v>54.5</v>
+        <v>55</v>
       </c>
       <c r="D124" t="n">
         <v>55</v>
       </c>
       <c r="E124" t="n">
-        <v>54.5</v>
+        <v>54.4</v>
       </c>
       <c r="F124" t="n">
-        <v>21243.2558</v>
+        <v>15099.75</v>
       </c>
       <c r="G124" t="n">
-        <v>53.92666666666675</v>
+        <v>53.90333333333341</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>54.6</v>
+        <v>54.9</v>
       </c>
       <c r="C125" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="D125" t="n">
-        <v>54.6</v>
+        <v>55</v>
       </c>
       <c r="E125" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="F125" t="n">
-        <v>4646</v>
+        <v>21243.2558</v>
       </c>
       <c r="G125" t="n">
-        <v>53.95166666666675</v>
+        <v>53.92666666666675</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>54.6</v>
       </c>
       <c r="F126" t="n">
-        <v>3579.9999</v>
+        <v>4646</v>
       </c>
       <c r="G126" t="n">
-        <v>53.97666666666675</v>
+        <v>53.95166666666675</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>54.6</v>
       </c>
       <c r="F127" t="n">
-        <v>299</v>
+        <v>3579.9999</v>
       </c>
       <c r="G127" t="n">
-        <v>53.99666666666675</v>
+        <v>53.97666666666675</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>54.6</v>
       </c>
       <c r="F128" t="n">
-        <v>599</v>
+        <v>299</v>
       </c>
       <c r="G128" t="n">
-        <v>54.02000000000008</v>
+        <v>53.99666666666675</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3713,21 +4099,24 @@
         <v>54.6</v>
       </c>
       <c r="C129" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="D129" t="n">
         <v>54.6</v>
       </c>
       <c r="E129" t="n">
-        <v>54.4</v>
+        <v>54.6</v>
       </c>
       <c r="F129" t="n">
-        <v>6253.7554</v>
+        <v>599</v>
       </c>
       <c r="G129" t="n">
-        <v>54.04166666666675</v>
+        <v>54.02000000000008</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3745,15 +4134,18 @@
         <v>54.6</v>
       </c>
       <c r="E130" t="n">
-        <v>54.5</v>
+        <v>54.4</v>
       </c>
       <c r="F130" t="n">
-        <v>20775.0349</v>
+        <v>6253.7554</v>
       </c>
       <c r="G130" t="n">
-        <v>54.06166666666675</v>
+        <v>54.04166666666675</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="C131" t="n">
         <v>54.5</v>
       </c>
       <c r="D131" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="E131" t="n">
         <v>54.5</v>
       </c>
       <c r="F131" t="n">
-        <v>10466.795</v>
+        <v>20775.0349</v>
       </c>
       <c r="G131" t="n">
-        <v>54.08000000000008</v>
+        <v>54.06166666666675</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>54.5</v>
       </c>
       <c r="F132" t="n">
-        <v>588</v>
+        <v>10466.795</v>
       </c>
       <c r="G132" t="n">
-        <v>54.10000000000007</v>
+        <v>54.08000000000008</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>54.5</v>
       </c>
       <c r="F133" t="n">
-        <v>2057.0641</v>
+        <v>588</v>
       </c>
       <c r="G133" t="n">
-        <v>54.11833333333341</v>
+        <v>54.10000000000007</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,12 +4253,15 @@
         <v>54.5</v>
       </c>
       <c r="F134" t="n">
-        <v>17282.9999</v>
+        <v>2057.0641</v>
       </c>
       <c r="G134" t="n">
-        <v>54.14333333333341</v>
+        <v>54.11833333333341</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,12 +4282,15 @@
         <v>54.5</v>
       </c>
       <c r="F135" t="n">
-        <v>12972.8316</v>
+        <v>17282.9999</v>
       </c>
       <c r="G135" t="n">
-        <v>54.16000000000007</v>
+        <v>54.14333333333341</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,21 +4302,24 @@
         <v>54.5</v>
       </c>
       <c r="C136" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="D136" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="E136" t="n">
         <v>54.5</v>
       </c>
       <c r="F136" t="n">
-        <v>4929.16</v>
+        <v>12972.8316</v>
       </c>
       <c r="G136" t="n">
-        <v>54.17833333333341</v>
+        <v>54.16000000000007</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>54.7</v>
+        <v>54.5</v>
       </c>
       <c r="C137" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="D137" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="E137" t="n">
-        <v>54.7</v>
+        <v>54.5</v>
       </c>
       <c r="F137" t="n">
-        <v>7985.739</v>
+        <v>4929.16</v>
       </c>
       <c r="G137" t="n">
-        <v>54.19166666666674</v>
+        <v>54.17833333333341</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="C138" t="n">
         <v>54.8</v>
-      </c>
-      <c r="C138" t="n">
-        <v>54.4</v>
       </c>
       <c r="D138" t="n">
         <v>54.8</v>
       </c>
       <c r="E138" t="n">
-        <v>54.4</v>
+        <v>54.7</v>
       </c>
       <c r="F138" t="n">
-        <v>7876.4416</v>
+        <v>7985.739</v>
       </c>
       <c r="G138" t="n">
-        <v>54.19666666666674</v>
+        <v>54.19166666666674</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="C139" t="n">
         <v>54.4</v>
       </c>
       <c r="D139" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="E139" t="n">
         <v>54.4</v>
       </c>
       <c r="F139" t="n">
-        <v>8800</v>
+        <v>7876.4416</v>
       </c>
       <c r="G139" t="n">
-        <v>54.20166666666675</v>
+        <v>54.19666666666674</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,12 +4427,15 @@
         <v>54.4</v>
       </c>
       <c r="F140" t="n">
-        <v>4506.7466</v>
+        <v>8800</v>
       </c>
       <c r="G140" t="n">
-        <v>54.20666666666675</v>
+        <v>54.20166666666675</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>54.4</v>
       </c>
       <c r="F141" t="n">
-        <v>201.8348</v>
+        <v>4506.7466</v>
       </c>
       <c r="G141" t="n">
-        <v>54.21166666666675</v>
+        <v>54.20666666666675</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>54.4</v>
       </c>
       <c r="C142" t="n">
-        <v>54.8</v>
+        <v>54.4</v>
       </c>
       <c r="D142" t="n">
-        <v>54.8</v>
+        <v>54.4</v>
       </c>
       <c r="E142" t="n">
         <v>54.4</v>
       </c>
       <c r="F142" t="n">
-        <v>1689.7032</v>
+        <v>201.8348</v>
       </c>
       <c r="G142" t="n">
-        <v>54.22333333333343</v>
+        <v>54.21166666666675</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C143" t="n">
         <v>54.8</v>
       </c>
-      <c r="C143" t="n">
-        <v>54.9</v>
-      </c>
       <c r="D143" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="E143" t="n">
-        <v>54.8</v>
+        <v>54.4</v>
       </c>
       <c r="F143" t="n">
-        <v>8295.824699999999</v>
+        <v>1689.7032</v>
       </c>
       <c r="G143" t="n">
-        <v>54.23833333333343</v>
+        <v>54.22333333333343</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,7 +4531,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="C144" t="n">
         <v>54.9</v>
@@ -4109,15 +4540,18 @@
         <v>54.9</v>
       </c>
       <c r="E144" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="F144" t="n">
-        <v>2000</v>
+        <v>8295.824699999999</v>
       </c>
       <c r="G144" t="n">
-        <v>54.25333333333343</v>
+        <v>54.23833333333343</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>54.9</v>
       </c>
       <c r="F145" t="n">
-        <v>12360.283</v>
+        <v>2000</v>
       </c>
       <c r="G145" t="n">
-        <v>54.26166666666676</v>
+        <v>54.25333333333343</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="C146" t="n">
         <v>54.9</v>
       </c>
       <c r="D146" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="E146" t="n">
         <v>54.9</v>
       </c>
       <c r="F146" t="n">
-        <v>39081.968</v>
+        <v>12360.283</v>
       </c>
       <c r="G146" t="n">
-        <v>54.27666666666676</v>
+        <v>54.26166666666676</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
       <c r="C147" t="n">
         <v>54.9</v>
       </c>
       <c r="D147" t="n">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
       <c r="E147" t="n">
         <v>54.9</v>
       </c>
       <c r="F147" t="n">
-        <v>11038.4615</v>
+        <v>39081.968</v>
       </c>
       <c r="G147" t="n">
-        <v>54.29166666666676</v>
+        <v>54.27666666666676</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="C148" t="n">
         <v>54.9</v>
       </c>
       <c r="D148" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="E148" t="n">
         <v>54.9</v>
       </c>
       <c r="F148" t="n">
-        <v>32991</v>
+        <v>11038.4615</v>
       </c>
       <c r="G148" t="n">
-        <v>54.30666666666676</v>
+        <v>54.29166666666676</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="C149" t="n">
-        <v>55.4</v>
+        <v>54.9</v>
       </c>
       <c r="D149" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="E149" t="n">
-        <v>55.4</v>
+        <v>54.9</v>
       </c>
       <c r="F149" t="n">
-        <v>1570.722</v>
+        <v>32991</v>
       </c>
       <c r="G149" t="n">
-        <v>54.3300000000001</v>
+        <v>54.30666666666676</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="C150" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="D150" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="E150" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="F150" t="n">
-        <v>316.1696</v>
+        <v>1570.722</v>
       </c>
       <c r="G150" t="n">
-        <v>54.34666666666677</v>
+        <v>54.3300000000001</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4294,12 +4746,15 @@
         <v>55</v>
       </c>
       <c r="F151" t="n">
-        <v>515.7806</v>
+        <v>316.1696</v>
       </c>
       <c r="G151" t="n">
-        <v>54.36333333333344</v>
+        <v>54.34666666666677</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="C152" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="D152" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="E152" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="F152" t="n">
-        <v>1420.1989</v>
+        <v>515.7806</v>
       </c>
       <c r="G152" t="n">
-        <v>54.3850000000001</v>
+        <v>54.36333333333344</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>55.3</v>
       </c>
       <c r="F153" t="n">
-        <v>539.5158</v>
+        <v>1420.1989</v>
       </c>
       <c r="G153" t="n">
-        <v>54.40833333333344</v>
+        <v>54.3850000000001</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="C154" t="n">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="D154" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="E154" t="n">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="F154" t="n">
-        <v>11060.2363</v>
+        <v>539.5158</v>
       </c>
       <c r="G154" t="n">
-        <v>54.42666666666677</v>
+        <v>54.40833333333344</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="C155" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="D155" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="E155" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="F155" t="n">
-        <v>999.9999</v>
+        <v>11060.2363</v>
       </c>
       <c r="G155" t="n">
-        <v>54.44833333333344</v>
+        <v>54.42666666666677</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>55.3</v>
       </c>
       <c r="F156" t="n">
-        <v>732</v>
+        <v>999.9999</v>
       </c>
       <c r="G156" t="n">
-        <v>54.47000000000011</v>
+        <v>54.44833333333344</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>55.3</v>
       </c>
       <c r="F157" t="n">
-        <v>1054</v>
+        <v>732</v>
       </c>
       <c r="G157" t="n">
-        <v>54.49166666666678</v>
+        <v>54.47000000000011</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="C158" t="n">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="D158" t="n">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="E158" t="n">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="F158" t="n">
-        <v>24.3651</v>
+        <v>1054</v>
       </c>
       <c r="G158" t="n">
-        <v>54.50666666666678</v>
+        <v>54.49166666666678</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="C159" t="n">
-        <v>55.5</v>
+        <v>55</v>
       </c>
       <c r="D159" t="n">
-        <v>55.5</v>
+        <v>55</v>
       </c>
       <c r="E159" t="n">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="F159" t="n">
-        <v>17426.50137729</v>
+        <v>24.3651</v>
       </c>
       <c r="G159" t="n">
-        <v>54.53333333333345</v>
+        <v>54.50666666666678</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C160" t="n">
         <v>55.5</v>
       </c>
-      <c r="C160" t="n">
-        <v>55.8</v>
-      </c>
       <c r="D160" t="n">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
       <c r="E160" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="F160" t="n">
-        <v>5741.80966751</v>
+        <v>17426.50137729</v>
       </c>
       <c r="G160" t="n">
-        <v>54.56166666666679</v>
+        <v>54.53333333333345</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4545,21 +5027,24 @@
         <v>55.5</v>
       </c>
       <c r="C161" t="n">
-        <v>55.5</v>
+        <v>55.8</v>
       </c>
       <c r="D161" t="n">
-        <v>55.5</v>
+        <v>55.8</v>
       </c>
       <c r="E161" t="n">
         <v>55.5</v>
       </c>
       <c r="F161" t="n">
-        <v>4006.3603</v>
+        <v>5741.80966751</v>
       </c>
       <c r="G161" t="n">
-        <v>54.58500000000012</v>
+        <v>54.56166666666679</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>55.5</v>
       </c>
       <c r="F162" t="n">
-        <v>7.729e-05</v>
+        <v>4006.3603</v>
       </c>
       <c r="G162" t="n">
-        <v>54.60666666666679</v>
+        <v>54.58500000000012</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>55.5</v>
       </c>
       <c r="F163" t="n">
-        <v>30251.7251</v>
+        <v>7.729e-05</v>
       </c>
       <c r="G163" t="n">
-        <v>54.63000000000012</v>
+        <v>54.60666666666679</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>55.5</v>
       </c>
       <c r="F164" t="n">
-        <v>3738.1259</v>
+        <v>30251.7251</v>
       </c>
       <c r="G164" t="n">
-        <v>54.65333333333346</v>
+        <v>54.63000000000012</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
       <c r="C165" t="n">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
       <c r="D165" t="n">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
       <c r="E165" t="n">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
       <c r="F165" t="n">
-        <v>38685.9677</v>
+        <v>3738.1259</v>
       </c>
       <c r="G165" t="n">
-        <v>54.68500000000013</v>
+        <v>54.65333333333346</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4675,21 +5172,24 @@
         <v>55.8</v>
       </c>
       <c r="C166" t="n">
-        <v>56</v>
+        <v>55.8</v>
       </c>
       <c r="D166" t="n">
-        <v>56</v>
+        <v>55.8</v>
       </c>
       <c r="E166" t="n">
         <v>55.8</v>
       </c>
       <c r="F166" t="n">
-        <v>85727.2420552</v>
+        <v>38685.9677</v>
       </c>
       <c r="G166" t="n">
-        <v>54.72166666666679</v>
+        <v>54.68500000000013</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,7 +5198,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="C167" t="n">
         <v>56</v>
@@ -4710,12 +5210,15 @@
         <v>55.8</v>
       </c>
       <c r="F167" t="n">
-        <v>22534.3392</v>
+        <v>85727.2420552</v>
       </c>
       <c r="G167" t="n">
-        <v>54.75500000000012</v>
+        <v>54.72166666666679</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C168" t="n">
         <v>56</v>
       </c>
-      <c r="C168" t="n">
-        <v>56.3</v>
-      </c>
       <c r="D168" t="n">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="E168" t="n">
-        <v>56</v>
+        <v>55.8</v>
       </c>
       <c r="F168" t="n">
-        <v>64599.5989</v>
+        <v>22534.3392</v>
       </c>
       <c r="G168" t="n">
-        <v>54.79166666666679</v>
+        <v>54.75500000000012</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>56</v>
+      </c>
+      <c r="C169" t="n">
         <v>56.3</v>
       </c>
-      <c r="C169" t="n">
-        <v>56.8</v>
-      </c>
       <c r="D169" t="n">
-        <v>56.8</v>
+        <v>56.3</v>
       </c>
       <c r="E169" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="F169" t="n">
-        <v>25459.0457</v>
+        <v>64599.5989</v>
       </c>
       <c r="G169" t="n">
-        <v>54.8416666666668</v>
+        <v>54.79166666666679</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,7 +5285,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>56.8</v>
+        <v>56.3</v>
       </c>
       <c r="C170" t="n">
         <v>56.8</v>
@@ -4785,15 +5294,18 @@
         <v>56.8</v>
       </c>
       <c r="E170" t="n">
-        <v>56.8</v>
+        <v>56.1</v>
       </c>
       <c r="F170" t="n">
-        <v>19345.1935</v>
+        <v>25459.0457</v>
       </c>
       <c r="G170" t="n">
-        <v>54.89333333333347</v>
+        <v>54.8416666666668</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,25 +5314,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>56.1</v>
+        <v>56.8</v>
       </c>
       <c r="C171" t="n">
-        <v>55.8</v>
+        <v>56.8</v>
       </c>
       <c r="D171" t="n">
         <v>56.8</v>
       </c>
       <c r="E171" t="n">
-        <v>55.6</v>
+        <v>56.8</v>
       </c>
       <c r="F171" t="n">
-        <v>71960.4039</v>
+        <v>19345.1935</v>
       </c>
       <c r="G171" t="n">
-        <v>54.92833333333348</v>
+        <v>54.89333333333347</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -4828,25 +5343,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C172" t="n">
         <v>55.8</v>
       </c>
-      <c r="C172" t="n">
-        <v>55.6</v>
-      </c>
       <c r="D172" t="n">
-        <v>55.8</v>
+        <v>56.8</v>
       </c>
       <c r="E172" t="n">
         <v>55.6</v>
       </c>
       <c r="F172" t="n">
-        <v>13375</v>
+        <v>71960.4039</v>
       </c>
       <c r="G172" t="n">
-        <v>54.96000000000014</v>
+        <v>54.92833333333348</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="C173" t="n">
-        <v>56.1</v>
+        <v>55.6</v>
       </c>
       <c r="D173" t="n">
-        <v>56.1</v>
+        <v>55.8</v>
       </c>
       <c r="E173" t="n">
         <v>55.6</v>
       </c>
       <c r="F173" t="n">
-        <v>12120.2954</v>
+        <v>13375</v>
       </c>
       <c r="G173" t="n">
-        <v>55.00000000000014</v>
+        <v>54.96000000000014</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,7 +5401,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="C174" t="n">
         <v>56.1</v>
@@ -4889,15 +5410,18 @@
         <v>56.1</v>
       </c>
       <c r="E174" t="n">
-        <v>56.1</v>
+        <v>55.6</v>
       </c>
       <c r="F174" t="n">
-        <v>5926.1348</v>
+        <v>12120.2954</v>
       </c>
       <c r="G174" t="n">
-        <v>55.04166666666681</v>
+        <v>55.00000000000014</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>56.7</v>
+        <v>56.1</v>
       </c>
       <c r="C175" t="n">
-        <v>56.8</v>
+        <v>56.1</v>
       </c>
       <c r="D175" t="n">
-        <v>56.8</v>
+        <v>56.1</v>
       </c>
       <c r="E175" t="n">
-        <v>56.7</v>
+        <v>56.1</v>
       </c>
       <c r="F175" t="n">
-        <v>5907.7288</v>
+        <v>5926.1348</v>
       </c>
       <c r="G175" t="n">
-        <v>55.09166666666681</v>
+        <v>55.04166666666681</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>56.1</v>
+        <v>56.7</v>
       </c>
       <c r="C176" t="n">
-        <v>56.1</v>
+        <v>56.8</v>
       </c>
       <c r="D176" t="n">
-        <v>56.1</v>
+        <v>56.8</v>
       </c>
       <c r="E176" t="n">
-        <v>56.1</v>
+        <v>56.7</v>
       </c>
       <c r="F176" t="n">
-        <v>246</v>
+        <v>5907.7288</v>
       </c>
       <c r="G176" t="n">
-        <v>55.13000000000014</v>
+        <v>55.09166666666681</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,12 +5500,15 @@
         <v>56.1</v>
       </c>
       <c r="F177" t="n">
-        <v>5304.187</v>
+        <v>246</v>
       </c>
       <c r="G177" t="n">
-        <v>55.16333333333348</v>
+        <v>55.13000000000014</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4987,21 +5520,24 @@
         <v>56.1</v>
       </c>
       <c r="C178" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="D178" t="n">
         <v>56.1</v>
       </c>
       <c r="E178" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="F178" t="n">
-        <v>6175.452</v>
+        <v>5304.187</v>
       </c>
       <c r="G178" t="n">
-        <v>55.18666666666681</v>
+        <v>55.16333333333348</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5013,21 +5549,24 @@
         <v>56.1</v>
       </c>
       <c r="C179" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="D179" t="n">
         <v>56.1</v>
       </c>
       <c r="E179" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="F179" t="n">
-        <v>1489.1452</v>
+        <v>6175.452</v>
       </c>
       <c r="G179" t="n">
-        <v>55.21000000000014</v>
+        <v>55.18666666666681</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="C180" t="n">
-        <v>55.8</v>
+        <v>56.1</v>
       </c>
       <c r="D180" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="E180" t="n">
-        <v>55.8</v>
+        <v>56.1</v>
       </c>
       <c r="F180" t="n">
-        <v>5892.9594</v>
+        <v>1489.1452</v>
       </c>
       <c r="G180" t="n">
-        <v>55.22666666666681</v>
+        <v>55.21000000000014</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5068,18 +5610,21 @@
         <v>55.8</v>
       </c>
       <c r="D181" t="n">
-        <v>56.6</v>
+        <v>56</v>
       </c>
       <c r="E181" t="n">
         <v>55.8</v>
       </c>
       <c r="F181" t="n">
-        <v>34620.0857</v>
+        <v>5892.9594</v>
       </c>
       <c r="G181" t="n">
-        <v>55.24500000000015</v>
+        <v>55.22666666666681</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>55.6</v>
+        <v>56</v>
       </c>
       <c r="C182" t="n">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
       <c r="D182" t="n">
-        <v>55.6</v>
+        <v>56.6</v>
       </c>
       <c r="E182" t="n">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
       <c r="F182" t="n">
-        <v>18623</v>
+        <v>34620.0857</v>
       </c>
       <c r="G182" t="n">
-        <v>55.24333333333348</v>
+        <v>55.24500000000015</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>55.1</v>
+        <v>55.6</v>
       </c>
       <c r="C183" t="n">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="D183" t="n">
-        <v>55.1</v>
+        <v>55.6</v>
       </c>
       <c r="E183" t="n">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="F183" t="n">
-        <v>617.6202</v>
+        <v>18623</v>
       </c>
       <c r="G183" t="n">
-        <v>55.24500000000015</v>
+        <v>55.24333333333348</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C184" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="D184" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="E184" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F184" t="n">
-        <v>8235.332399999999</v>
+        <v>617.6202</v>
       </c>
       <c r="G184" t="n">
-        <v>55.25333333333348</v>
+        <v>55.24500000000015</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="C185" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="D185" t="n">
         <v>55</v>
       </c>
       <c r="E185" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="F185" t="n">
-        <v>12657.6053</v>
+        <v>8235.332399999999</v>
       </c>
       <c r="G185" t="n">
-        <v>55.25833333333348</v>
+        <v>55.25333333333348</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="C186" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="D186" t="n">
         <v>55</v>
       </c>
       <c r="E186" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="F186" t="n">
-        <v>1102.4449</v>
+        <v>12657.6053</v>
       </c>
       <c r="G186" t="n">
-        <v>55.26500000000015</v>
+        <v>55.25833333333348</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="C187" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="D187" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="E187" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="F187" t="n">
-        <v>8300</v>
+        <v>1102.4449</v>
       </c>
       <c r="G187" t="n">
-        <v>55.27000000000016</v>
+        <v>55.26500000000015</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5247,21 +5810,24 @@
         <v>54.9</v>
       </c>
       <c r="C188" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="D188" t="n">
         <v>54.9</v>
       </c>
       <c r="E188" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="F188" t="n">
-        <v>591.6552</v>
+        <v>8300</v>
       </c>
       <c r="G188" t="n">
-        <v>55.27166666666682</v>
+        <v>55.27000000000016</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="C189" t="n">
         <v>54.7</v>
       </c>
       <c r="D189" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="E189" t="n">
         <v>54.7</v>
       </c>
       <c r="F189" t="n">
-        <v>20317.3903</v>
+        <v>591.6552</v>
       </c>
       <c r="G189" t="n">
-        <v>55.27500000000015</v>
+        <v>55.27166666666682</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="C190" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="D190" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="E190" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="F190" t="n">
-        <v>1971</v>
+        <v>20317.3903</v>
       </c>
       <c r="G190" t="n">
-        <v>55.28000000000016</v>
+        <v>55.27500000000015</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5334,12 +5906,15 @@
         <v>54.8</v>
       </c>
       <c r="F191" t="n">
-        <v>29990.7676</v>
+        <v>1971</v>
       </c>
       <c r="G191" t="n">
-        <v>55.28500000000016</v>
+        <v>55.28000000000016</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,12 +5935,15 @@
         <v>54.8</v>
       </c>
       <c r="F192" t="n">
-        <v>16461.7224</v>
+        <v>29990.7676</v>
       </c>
       <c r="G192" t="n">
-        <v>55.29000000000016</v>
+        <v>55.28500000000016</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5377,21 +5955,24 @@
         <v>54.8</v>
       </c>
       <c r="C193" t="n">
-        <v>56.1</v>
+        <v>54.8</v>
       </c>
       <c r="D193" t="n">
-        <v>56.1</v>
+        <v>54.8</v>
       </c>
       <c r="E193" t="n">
         <v>54.8</v>
       </c>
       <c r="F193" t="n">
-        <v>10984.635</v>
+        <v>16461.7224</v>
       </c>
       <c r="G193" t="n">
-        <v>55.31666666666683</v>
+        <v>55.29000000000016</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="C194" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="D194" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="E194" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="F194" t="n">
-        <v>12471.6507</v>
+        <v>10984.635</v>
       </c>
       <c r="G194" t="n">
-        <v>55.32333333333349</v>
+        <v>55.31666666666683</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C195" t="n">
-        <v>55.1</v>
+        <v>54.9</v>
       </c>
       <c r="D195" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="E195" t="n">
-        <v>55.1</v>
+        <v>54.9</v>
       </c>
       <c r="F195" t="n">
-        <v>3614.395</v>
+        <v>12471.6507</v>
       </c>
       <c r="G195" t="n">
-        <v>55.33333333333349</v>
+        <v>55.32333333333349</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5464,12 +6051,15 @@
         <v>55.1</v>
       </c>
       <c r="F196" t="n">
-        <v>9195.046899999999</v>
+        <v>3614.395</v>
       </c>
       <c r="G196" t="n">
-        <v>55.34166666666682</v>
+        <v>55.33333333333349</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5481,21 +6071,24 @@
         <v>55.1</v>
       </c>
       <c r="C197" t="n">
-        <v>54.8</v>
+        <v>55.1</v>
       </c>
       <c r="D197" t="n">
         <v>55.1</v>
       </c>
       <c r="E197" t="n">
-        <v>54.8</v>
+        <v>55.1</v>
       </c>
       <c r="F197" t="n">
-        <v>17965.8528</v>
+        <v>9195.046899999999</v>
       </c>
       <c r="G197" t="n">
         <v>55.34166666666682</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
       <c r="C198" t="n">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="D198" t="n">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
       <c r="E198" t="n">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="F198" t="n">
-        <v>2768.6902</v>
+        <v>17965.8528</v>
       </c>
       <c r="G198" t="n">
-        <v>55.34500000000016</v>
+        <v>55.34166666666682</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5542,12 +6138,15 @@
         <v>54.6</v>
       </c>
       <c r="F199" t="n">
-        <v>11800</v>
+        <v>2768.6902</v>
       </c>
       <c r="G199" t="n">
-        <v>55.34833333333349</v>
+        <v>55.34500000000016</v>
       </c>
       <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5562,18 +6161,21 @@
         <v>54.6</v>
       </c>
       <c r="D200" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="E200" t="n">
         <v>54.6</v>
       </c>
       <c r="F200" t="n">
-        <v>6709.5992</v>
+        <v>11800</v>
       </c>
       <c r="G200" t="n">
-        <v>55.35166666666682</v>
+        <v>55.34833333333349</v>
       </c>
       <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="C201" t="n">
-        <v>55.5</v>
+        <v>54.6</v>
       </c>
       <c r="D201" t="n">
-        <v>55.5</v>
+        <v>55.8</v>
       </c>
       <c r="E201" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="F201" t="n">
-        <v>2881.8974009</v>
+        <v>6709.5992</v>
       </c>
       <c r="G201" t="n">
-        <v>55.37000000000015</v>
+        <v>55.35166666666682</v>
       </c>
       <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="C202" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="D202" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="E202" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="F202" t="n">
-        <v>8992.805700000001</v>
+        <v>2881.8974009</v>
       </c>
       <c r="G202" t="n">
-        <v>55.38333333333347</v>
+        <v>55.37000000000015</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="C203" t="n">
-        <v>56</v>
+        <v>55.6</v>
       </c>
       <c r="D203" t="n">
-        <v>56</v>
+        <v>55.6</v>
       </c>
       <c r="E203" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="F203" t="n">
-        <v>3595.77582285</v>
+        <v>8992.805700000001</v>
       </c>
       <c r="G203" t="n">
-        <v>55.40166666666681</v>
+        <v>55.38333333333347</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,544 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="C204" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="D204" t="n">
-        <v>55.6</v>
+        <v>56</v>
       </c>
       <c r="E204" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="F204" t="n">
-        <v>6898.3812</v>
+        <v>3595.77582285</v>
       </c>
       <c r="G204" t="n">
-        <v>55.40500000000014</v>
+        <v>55.40166666666681</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C205" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="D205" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E205" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1</v>
-      </c>
-      <c r="G205" t="n">
-        <v>55.41666666666681</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C206" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D206" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E206" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1999</v>
-      </c>
-      <c r="G206" t="n">
-        <v>55.42000000000014</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C207" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="D207" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E207" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1</v>
-      </c>
-      <c r="G207" t="n">
-        <v>55.4316666666668</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C208" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D208" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E208" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1420.1989</v>
-      </c>
-      <c r="G208" t="n">
-        <v>55.43500000000013</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C209" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D209" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E209" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F209" t="n">
-        <v>838.9999</v>
-      </c>
-      <c r="G209" t="n">
-        <v>55.43000000000013</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C210" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D210" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E210" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F210" t="n">
-        <v>788</v>
-      </c>
-      <c r="G210" t="n">
-        <v>55.43166666666679</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C211" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D211" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E211" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F211" t="n">
-        <v>80</v>
-      </c>
-      <c r="G211" t="n">
-        <v>55.43333333333346</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C212" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="D212" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E212" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1</v>
-      </c>
-      <c r="G212" t="n">
-        <v>55.43833333333345</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C213" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D213" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E213" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F213" t="n">
-        <v>60305.8642</v>
-      </c>
-      <c r="G213" t="n">
-        <v>55.43500000000011</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C214" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="D214" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="E214" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F214" t="n">
-        <v>7043.1603</v>
-      </c>
-      <c r="G214" t="n">
-        <v>55.44666666666678</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="C215" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="D215" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E215" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2916</v>
-      </c>
-      <c r="G215" t="n">
-        <v>55.45666666666678</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C216" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="D216" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="E216" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="F216" t="n">
-        <v>15400</v>
-      </c>
-      <c r="G216" t="n">
-        <v>55.47333333333344</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="C217" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="D217" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="E217" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="F217" t="n">
-        <v>62990.8509</v>
-      </c>
-      <c r="G217" t="n">
-        <v>55.49666666666677</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C218" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="D218" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="E218" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="F218" t="n">
-        <v>44736.5506</v>
-      </c>
-      <c r="G218" t="n">
-        <v>55.52833333333344</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="C219" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="D219" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="E219" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F219" t="n">
-        <v>54237.0773</v>
-      </c>
-      <c r="G219" t="n">
-        <v>55.53833333333343</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="C220" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="D220" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="E220" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1590</v>
-      </c>
-      <c r="G220" t="n">
-        <v>55.54833333333343</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="C221" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="D221" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="E221" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="F221" t="n">
-        <v>10254.7067</v>
-      </c>
-      <c r="G221" t="n">
-        <v>55.55333333333343</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="C222" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="D222" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="E222" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1</v>
-      </c>
-      <c r="G222" t="n">
-        <v>55.57166666666676</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C223" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="D223" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E223" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="F223" t="n">
-        <v>5200</v>
-      </c>
-      <c r="G223" t="n">
-        <v>55.57666666666677</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C224" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="D224" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E224" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F224" t="n">
-        <v>3690.358</v>
-      </c>
-      <c r="G224" t="n">
-        <v>55.57833333333344</v>
-      </c>
-      <c r="H224" t="n">
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
